--- a/ResourceUse.xlsx
+++ b/ResourceUse.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -384,7 +383,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B10" activeCellId="1" sqref="E8 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,16 +530,16 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ResourceUse.xlsx
+++ b/ResourceUse.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>List</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>nufft512</t>
+  </si>
+  <si>
+    <t>s2s3</t>
+  </si>
+  <si>
+    <t>cosimbug</t>
+  </si>
+  <si>
+    <t>merge7</t>
   </si>
 </sst>
 </file>
@@ -380,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" activeCellId="1" sqref="E8 B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,6 +550,55 @@
       <c r="E8">
         <v>16</v>
       </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ResourceUse.xlsx
+++ b/ResourceUse.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>List</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>merge7</t>
+  </si>
+  <si>
+    <t>s3s4</t>
+  </si>
+  <si>
+    <t>final</t>
   </si>
 </sst>
 </file>
@@ -389,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,28 +428,28 @@
         <v>5</v>
       </c>
       <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>28</v>
+      </c>
+      <c r="F2">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="G2">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="H2">
         <v>13</v>
       </c>
-      <c r="E2">
+      <c r="I2">
         <v>22</v>
-      </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>17</v>
-      </c>
-      <c r="I2">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -598,6 +604,45 @@
       </c>
       <c r="I10">
         <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/ResourceUse.xlsx
+++ b/ResourceUse.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeniorProjectSrc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SeniorProjectSrc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>List</t>
   </si>
@@ -78,13 +78,16 @@
   </si>
   <si>
     <t>final</t>
+  </si>
+  <si>
+    <t>Sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,16 +95,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,12 +130,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,246 +446,329 @@
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2">
-        <v>28</v>
-      </c>
-      <c r="F2">
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
         <v>9</v>
       </c>
-      <c r="G2">
-        <v>11</v>
-      </c>
-      <c r="H2">
-        <v>13</v>
-      </c>
-      <c r="I2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D12" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8">
+      <c r="E12" s="3">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E13">
-        <v>107</v>
-      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2">
+        <f>SUM(B2:B12)</f>
+        <v>63</v>
+      </c>
+      <c r="C13" s="2">
+        <f>SUM(C2:C12)</f>
+        <v>65</v>
+      </c>
+      <c r="D13" s="2">
+        <f>SUM(D2:D12)</f>
+        <v>51</v>
+      </c>
+      <c r="E13" s="4">
+        <f>SUM(E2:E12)</f>
+        <v>108</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ResourceUse.xlsx
+++ b/ResourceUse.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>List</t>
   </si>
@@ -438,7 +438,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,29 +472,23 @@
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3">
-        <v>29</v>
-      </c>
-      <c r="F2" s="1">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -724,19 +718,19 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E13" s="4">
         <f>SUM(E2:E12)</f>
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>

--- a/ResourceUse.xlsx
+++ b/ResourceUse.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>List</t>
   </si>
@@ -53,9 +53,6 @@
     <t>nufftnewposition</t>
   </si>
   <si>
-    <t>s1s2mux</t>
-  </si>
-  <si>
     <t>timing not met</t>
   </si>
   <si>
@@ -81,6 +78,12 @@
   </si>
   <si>
     <t>Sum</t>
+  </si>
+  <si>
+    <t>mux</t>
+  </si>
+  <si>
+    <t>DispCal</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +475,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3">
         <v>7</v>
@@ -484,7 +487,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -492,19 +495,19 @@
     </row>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -513,19 +516,19 @@
     </row>
     <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -534,42 +537,40 @@
     </row>
     <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="3">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -578,134 +579,136 @@
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
         <v>9</v>
       </c>
-      <c r="E7" s="3">
-        <v>15</v>
-      </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3">
         <v>9</v>
       </c>
       <c r="E8" s="3">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
         <v>16</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -714,32 +717,53 @@
     </row>
     <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2">
-        <f>SUM(B2:B12)</f>
-        <v>54</v>
-      </c>
-      <c r="C13" s="2">
-        <f>SUM(C2:C12)</f>
-        <v>59</v>
-      </c>
-      <c r="D13" s="2">
-        <f>SUM(D2:D12)</f>
-        <v>43</v>
-      </c>
-      <c r="E13" s="4">
-        <f>SUM(E2:E12)</f>
-        <v>95</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>16</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <f>SUM(B2:B13)</f>
+        <v>73</v>
+      </c>
+      <c r="C14" s="2">
+        <f>SUM(C2:C13)</f>
+        <v>62</v>
+      </c>
+      <c r="D14" s="2">
+        <f>SUM(D2:D13)</f>
+        <v>45</v>
+      </c>
+      <c r="E14" s="4">
+        <f>SUM(E2:E13)</f>
+        <v>96</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E12">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="E2:E13">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -750,8 +774,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E12">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B2:E13">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
